--- a/SHCourseGroupCodeAdmin/Template/班級課程規劃表資料樣版.xlsx
+++ b/SHCourseGroupCodeAdmin/Template/班級課程規劃表資料樣版.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>課程規劃表名稱</t>
   </si>
@@ -45,25 +45,18 @@
     <t>必修選修</t>
   </si>
   <si>
-    <t>科目級別</t>
-  </si>
-  <si>
-    <t>學分數</t>
-  </si>
-  <si>
     <t>課程代碼</t>
-  </si>
-  <si>
-    <t>年級</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>學期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>群科班名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群科班代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授課學期學分</t>
   </si>
 </sst>
 </file>
@@ -396,52 +389,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -452,7 +441,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -461,46 +450,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
